--- a/s1cDNASample/s1cDNASample_4019.xlsx
+++ b/s1cDNASample/s1cDNASample_4019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/s1cDNASample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BCB818E-074B-AE4E-A472-E449C6F63E6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D122E531-BE8A-7A4E-8EFB-425DF25361AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="13580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
